--- a/Child cases (1).xlsx
+++ b/Child cases (1).xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A886F-F5A7-4EAE-A553-CEA3F12D021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Child cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0">'Child cases'!$A$1:$H$72</definedName>
+    <definedName name="ExternalData_2" localSheetId="0">'Child cases'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -736,7 +737,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -779,10 +788,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Child cases-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    <tableStyle name="Child cases-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -797,19 +806,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:H113">
-  <sortState ref="A2:H114">
-    <sortCondition sortBy="cellColor" ref="A2:A114" dxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:H113">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H114">
+    <sortCondition sortBy="cellColor" ref="A2:A114" dxfId="2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="No."/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Age(current year)"/>
-    <tableColumn id="4" name="Hair color"/>
-    <tableColumn id="5" name="Home address"/>
-    <tableColumn id="6" name="Last seen"/>
-    <tableColumn id="7" name="Date of birth"/>
-    <tableColumn id="8" name="Date of absence"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Age(current year)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Hair color"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Home address"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last seen"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date of birth"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Date of absence"/>
   </tableColumns>
   <tableStyleInfo name="Child cases-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1012,11 +1021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1776,19 +1785,19 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>183</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1797,24 +1806,24 @@
         <v>10</v>
       </c>
       <c r="H28" s="2">
-        <v>43516</v>
+        <v>42653</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
@@ -1823,15 +1832,19 @@
         <v>10</v>
       </c>
       <c r="H29" s="2">
-        <v>42653</v>
-      </c>
+        <v>41618</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>14</v>
@@ -1839,151 +1852,147 @@
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="2">
         <v>41618</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2">
-        <v>41618</v>
+        <v>70</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1990</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1990</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H32" s="2">
+        <v>43468</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43468</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2008</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40239</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="13">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="1">
         <v>2008</v>
       </c>
       <c r="H35" s="2">
@@ -1992,143 +2001,143 @@
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2008</v>
-      </c>
-      <c r="H36" s="2">
-        <v>40239</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="1">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C38" s="1">
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40523</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="H39" s="2">
-        <v>40523</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="G40" s="1">
-        <v>1992</v>
-      </c>
-      <c r="H40" s="2">
-        <v>35065</v>
+        <v>1993</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2136,184 +2145,198 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>92</v>
+      <c r="F41" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="G41" s="1">
-        <v>1993</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>93</v>
+        <v>2010</v>
+      </c>
+      <c r="H41" s="2">
+        <v>42347</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C42" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G42" s="1">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="H42" s="2">
-        <v>42347</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>96</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C43" s="1">
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="G43" s="1">
-        <v>1995</v>
-      </c>
-      <c r="H43" s="2">
-        <v>40544</v>
+        <v>2004</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G44" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>101</v>
+        <v>2014</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43225</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2014</v>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H45" s="2">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1">
         <v>20</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="H47" s="8">
+        <v>40850</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
     </row>
     <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -2324,8 +2347,8 @@
       <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="8">
-        <v>40850</v>
+      <c r="H48" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2342,15 +2365,15 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
@@ -2364,147 +2387,133 @@
       <c r="G49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="8">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="8">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="1">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="8">
+        <v>41466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="1">
-        <v>20</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="8">
-        <v>41466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
+      <c r="E54" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2512,219 +2521,223 @@
       <c r="G54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="2">
+        <v>41640</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2">
+        <v>40911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2">
-        <v>41640</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="1">
-        <v>17</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="13">
+        <v>2010</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="2">
-        <v>40911</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>127</v>
+      <c r="E57" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="13">
-        <v>2010</v>
+        <v>106</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>105</v>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="13">
+        <v>9</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44153</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="1">
         <v>16</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="13">
-        <v>9</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="2">
-        <v>44153</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>130</v>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
+        <v>40544</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2733,28 +2746,24 @@
         <v>10</v>
       </c>
       <c r="H62" s="2">
-        <v>40544</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>136</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2762,42 +2771,42 @@
       <c r="G63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="2">
-        <v>40974</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="1">
-        <v>17</v>
+        <v>139</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>138</v>
+      <c r="E64" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" s="13">
+        <v>2011</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>48</v>
@@ -2805,28 +2814,28 @@
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
         <v>2011</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>141</v>
+      <c r="H65" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="C66" s="1">
+        <v>15</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -2835,169 +2844,169 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G66" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>143</v>
+        <v>2009</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="1">
+        <v>147</v>
+      </c>
+      <c r="C67" s="13">
         <v>15</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>145</v>
+      <c r="D67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="G67" s="1">
         <v>2009</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>146</v>
+      <c r="H67" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="13">
-        <v>15</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G68" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="2">
+        <v>42166</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="1">
+        <v>154</v>
+      </c>
+      <c r="C69" s="12">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="2">
-        <v>42166</v>
+      <c r="E69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="12">
-        <v>15</v>
-      </c>
-      <c r="D70" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="13">
+        <v>14</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G70" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>156</v>
+        <v>2010</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41641</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="13">
-        <v>14</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H71" s="2">
-        <v>41641</v>
+        <v>159</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C72" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>160</v>
+      <c r="H72" s="2">
+        <v>43516</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
